--- a/lists/bg3_spells_raw.xlsx
+++ b/lists/bg3_spells_raw.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbrobst/Documents/Coding/Brobst_Python/repos/randomize_bg3_vanilla/lists/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E34493-FAFA-9E49-AC80-B108F593C296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="35000" yWindow="1720" windowWidth="34560" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="224">
   <si>
     <t>Class</t>
   </si>
@@ -688,17 +697,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -707,36 +718,43 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -926,26 +944,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C550"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A499" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E540" sqref="E540"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="39.75"/>
+    <col min="2" max="2" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -956,7 +977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -967,7 +988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -978,7 +999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -989,7 +1010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1000,7 +1021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -1011,7 +1032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
@@ -1022,7 +1043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1033,7 +1054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
@@ -1044,7 +1065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -1052,10 +1073,10 @@
         <v>13</v>
       </c>
       <c r="C10" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -1063,10 +1084,10 @@
         <v>14</v>
       </c>
       <c r="C11" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
@@ -1074,10 +1095,10 @@
         <v>15</v>
       </c>
       <c r="C12" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
@@ -1085,10 +1106,10 @@
         <v>16</v>
       </c>
       <c r="C13" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>3</v>
       </c>
@@ -1096,10 +1117,10 @@
         <v>17</v>
       </c>
       <c r="C14" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
@@ -1107,10 +1128,10 @@
         <v>18</v>
       </c>
       <c r="C15" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>3</v>
       </c>
@@ -1118,10 +1139,10 @@
         <v>19</v>
       </c>
       <c r="C16" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -1129,10 +1150,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
@@ -1140,10 +1161,10 @@
         <v>21</v>
       </c>
       <c r="C18" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>3</v>
       </c>
@@ -1151,10 +1172,10 @@
         <v>22</v>
       </c>
       <c r="C19" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
@@ -1162,10 +1183,10 @@
         <v>23</v>
       </c>
       <c r="C20" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
@@ -1173,10 +1194,10 @@
         <v>24</v>
       </c>
       <c r="C21" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
@@ -1184,10 +1205,10 @@
         <v>25</v>
       </c>
       <c r="C22" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -1195,10 +1216,10 @@
         <v>26</v>
       </c>
       <c r="C23" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -1206,10 +1227,10 @@
         <v>27</v>
       </c>
       <c r="C24" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
@@ -1217,10 +1238,10 @@
         <v>28</v>
       </c>
       <c r="C25" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
@@ -1228,10 +1249,10 @@
         <v>29</v>
       </c>
       <c r="C26" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
@@ -1239,10 +1260,10 @@
         <v>30</v>
       </c>
       <c r="C27" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
@@ -1250,10 +1271,10 @@
         <v>31</v>
       </c>
       <c r="C28" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
@@ -1261,10 +1282,10 @@
         <v>32</v>
       </c>
       <c r="C29" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
@@ -1272,10 +1293,10 @@
         <v>33</v>
       </c>
       <c r="C30" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>3</v>
       </c>
@@ -1283,10 +1304,10 @@
         <v>34</v>
       </c>
       <c r="C31" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>3</v>
       </c>
@@ -1294,10 +1315,10 @@
         <v>35</v>
       </c>
       <c r="C32" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
@@ -1305,10 +1326,10 @@
         <v>36</v>
       </c>
       <c r="C33" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>3</v>
       </c>
@@ -1316,10 +1337,10 @@
         <v>37</v>
       </c>
       <c r="C34" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
         <v>3</v>
       </c>
@@ -1327,10 +1348,10 @@
         <v>38</v>
       </c>
       <c r="C35" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
         <v>3</v>
       </c>
@@ -1338,10 +1359,10 @@
         <v>39</v>
       </c>
       <c r="C36" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
         <v>3</v>
       </c>
@@ -1349,10 +1370,10 @@
         <v>40</v>
       </c>
       <c r="C37" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
         <v>3</v>
       </c>
@@ -1360,10 +1381,10 @@
         <v>41</v>
       </c>
       <c r="C38" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
@@ -1371,10 +1392,10 @@
         <v>42</v>
       </c>
       <c r="C39" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>3</v>
       </c>
@@ -1382,10 +1403,10 @@
         <v>43</v>
       </c>
       <c r="C40" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
         <v>3</v>
       </c>
@@ -1393,10 +1414,10 @@
         <v>44</v>
       </c>
       <c r="C41" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>3</v>
       </c>
@@ -1404,10 +1425,10 @@
         <v>45</v>
       </c>
       <c r="C42" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
         <v>3</v>
       </c>
@@ -1415,10 +1436,10 @@
         <v>46</v>
       </c>
       <c r="C43" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
         <v>3</v>
       </c>
@@ -1426,10 +1447,10 @@
         <v>47</v>
       </c>
       <c r="C44" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
         <v>3</v>
       </c>
@@ -1437,10 +1458,10 @@
         <v>48</v>
       </c>
       <c r="C45" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
         <v>3</v>
       </c>
@@ -1448,10 +1469,10 @@
         <v>49</v>
       </c>
       <c r="C46" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
         <v>3</v>
       </c>
@@ -1459,10 +1480,10 @@
         <v>50</v>
       </c>
       <c r="C47" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
         <v>3</v>
       </c>
@@ -1470,10 +1491,10 @@
         <v>51</v>
       </c>
       <c r="C48" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
         <v>3</v>
       </c>
@@ -1481,10 +1502,10 @@
         <v>52</v>
       </c>
       <c r="C49" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
         <v>3</v>
       </c>
@@ -1492,10 +1513,10 @@
         <v>53</v>
       </c>
       <c r="C50" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
         <v>3</v>
       </c>
@@ -1503,10 +1524,10 @@
         <v>54</v>
       </c>
       <c r="C51" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
         <v>3</v>
       </c>
@@ -1514,10 +1535,10 @@
         <v>55</v>
       </c>
       <c r="C52" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
         <v>3</v>
       </c>
@@ -1525,10 +1546,10 @@
         <v>56</v>
       </c>
       <c r="C53" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
         <v>3</v>
       </c>
@@ -1536,10 +1557,10 @@
         <v>57</v>
       </c>
       <c r="C54" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>3</v>
       </c>
@@ -1547,10 +1568,10 @@
         <v>58</v>
       </c>
       <c r="C55" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
         <v>3</v>
       </c>
@@ -1558,10 +1579,10 @@
         <v>59</v>
       </c>
       <c r="C56" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
         <v>3</v>
       </c>
@@ -1569,10 +1590,10 @@
         <v>60</v>
       </c>
       <c r="C57" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1" t="s">
         <v>3</v>
       </c>
@@ -1580,10 +1601,10 @@
         <v>61</v>
       </c>
       <c r="C58" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1" t="s">
         <v>3</v>
       </c>
@@ -1591,10 +1612,10 @@
         <v>62</v>
       </c>
       <c r="C59" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="1" t="s">
         <v>3</v>
       </c>
@@ -1602,10 +1623,10 @@
         <v>63</v>
       </c>
       <c r="C60" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1" t="s">
         <v>3</v>
       </c>
@@ -1613,10 +1634,10 @@
         <v>64</v>
       </c>
       <c r="C61" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="1" t="s">
         <v>65</v>
       </c>
@@ -1627,7 +1648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1" t="s">
         <v>65</v>
       </c>
@@ -1638,7 +1659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>65</v>
       </c>
@@ -1649,7 +1670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
@@ -1660,7 +1681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
@@ -1671,7 +1692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
         <v>65</v>
       </c>
@@ -1682,7 +1703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
         <v>65</v>
       </c>
@@ -1693,7 +1714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
         <v>65</v>
       </c>
@@ -1704,7 +1725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
         <v>65</v>
       </c>
@@ -1715,7 +1736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
         <v>65</v>
       </c>
@@ -1723,10 +1744,10 @@
         <v>14</v>
       </c>
       <c r="C71" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
         <v>65</v>
       </c>
@@ -1734,10 +1755,10 @@
         <v>73</v>
       </c>
       <c r="C72" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>65</v>
       </c>
@@ -1745,10 +1766,10 @@
         <v>74</v>
       </c>
       <c r="C73" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
         <v>65</v>
       </c>
@@ -1756,10 +1777,10 @@
         <v>75</v>
       </c>
       <c r="C74" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
         <v>65</v>
       </c>
@@ -1767,10 +1788,10 @@
         <v>16</v>
       </c>
       <c r="C75" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
         <v>65</v>
       </c>
@@ -1778,10 +1799,10 @@
         <v>76</v>
       </c>
       <c r="C76" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
         <v>65</v>
       </c>
@@ -1789,10 +1810,10 @@
         <v>21</v>
       </c>
       <c r="C77" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
         <v>65</v>
       </c>
@@ -1800,10 +1821,10 @@
         <v>77</v>
       </c>
       <c r="C78" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
         <v>65</v>
       </c>
@@ -1811,10 +1832,10 @@
         <v>78</v>
       </c>
       <c r="C79" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
         <v>65</v>
       </c>
@@ -1822,10 +1843,10 @@
         <v>79</v>
       </c>
       <c r="C80" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
         <v>65</v>
       </c>
@@ -1833,10 +1854,10 @@
         <v>80</v>
       </c>
       <c r="C81" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
         <v>65</v>
       </c>
@@ -1844,10 +1865,10 @@
         <v>81</v>
       </c>
       <c r="C82" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
         <v>65</v>
       </c>
@@ -1855,10 +1876,10 @@
         <v>28</v>
       </c>
       <c r="C83" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
         <v>65</v>
       </c>
@@ -1866,10 +1887,10 @@
         <v>29</v>
       </c>
       <c r="C84" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
         <v>65</v>
       </c>
@@ -1877,10 +1898,10 @@
         <v>33</v>
       </c>
       <c r="C85" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
         <v>65</v>
       </c>
@@ -1888,10 +1909,10 @@
         <v>36</v>
       </c>
       <c r="C86" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" s="1" t="s">
         <v>65</v>
       </c>
@@ -1899,10 +1920,10 @@
         <v>39</v>
       </c>
       <c r="C87" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" s="1" t="s">
         <v>65</v>
       </c>
@@ -1910,10 +1931,10 @@
         <v>82</v>
       </c>
       <c r="C88" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" s="1" t="s">
         <v>65</v>
       </c>
@@ -1921,10 +1942,10 @@
         <v>83</v>
       </c>
       <c r="C89" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" s="1" t="s">
         <v>65</v>
       </c>
@@ -1932,10 +1953,10 @@
         <v>43</v>
       </c>
       <c r="C90" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="1" t="s">
         <v>65</v>
       </c>
@@ -1943,10 +1964,10 @@
         <v>84</v>
       </c>
       <c r="C91" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="1" t="s">
         <v>65</v>
       </c>
@@ -1954,10 +1975,10 @@
         <v>85</v>
       </c>
       <c r="C92" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="1" t="s">
         <v>65</v>
       </c>
@@ -1965,10 +1986,10 @@
         <v>86</v>
       </c>
       <c r="C93" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="1" t="s">
         <v>65</v>
       </c>
@@ -1976,10 +1997,10 @@
         <v>87</v>
       </c>
       <c r="C94" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="1" t="s">
         <v>65</v>
       </c>
@@ -1987,10 +2008,10 @@
         <v>44</v>
       </c>
       <c r="C95" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="1" t="s">
         <v>65</v>
       </c>
@@ -1998,10 +2019,10 @@
         <v>88</v>
       </c>
       <c r="C96" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A97" s="1" t="s">
         <v>65</v>
       </c>
@@ -2009,10 +2030,10 @@
         <v>46</v>
       </c>
       <c r="C97" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A98" s="1" t="s">
         <v>65</v>
       </c>
@@ -2020,10 +2041,10 @@
         <v>47</v>
       </c>
       <c r="C98" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A99" s="1" t="s">
         <v>65</v>
       </c>
@@ -2031,10 +2052,10 @@
         <v>89</v>
       </c>
       <c r="C99" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A100" s="1" t="s">
         <v>65</v>
       </c>
@@ -2042,10 +2063,10 @@
         <v>90</v>
       </c>
       <c r="C100" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A101" s="1" t="s">
         <v>65</v>
       </c>
@@ -2053,10 +2074,10 @@
         <v>91</v>
       </c>
       <c r="C101" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A102" s="1" t="s">
         <v>65</v>
       </c>
@@ -2064,10 +2085,10 @@
         <v>92</v>
       </c>
       <c r="C102" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A103" s="1" t="s">
         <v>65</v>
       </c>
@@ -2075,10 +2096,10 @@
         <v>50</v>
       </c>
       <c r="C103" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A104" s="1" t="s">
         <v>65</v>
       </c>
@@ -2086,10 +2107,10 @@
         <v>93</v>
       </c>
       <c r="C104" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A105" s="1" t="s">
         <v>65</v>
       </c>
@@ -2097,10 +2118,10 @@
         <v>94</v>
       </c>
       <c r="C105" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A106" s="1" t="s">
         <v>65</v>
       </c>
@@ -2108,10 +2129,10 @@
         <v>95</v>
       </c>
       <c r="C106" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A107" s="1" t="s">
         <v>65</v>
       </c>
@@ -2119,10 +2140,10 @@
         <v>54</v>
       </c>
       <c r="C107" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A108" s="1" t="s">
         <v>65</v>
       </c>
@@ -2130,10 +2151,10 @@
         <v>96</v>
       </c>
       <c r="C108" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A109" s="1" t="s">
         <v>65</v>
       </c>
@@ -2141,10 +2162,10 @@
         <v>97</v>
       </c>
       <c r="C109" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A110" s="1" t="s">
         <v>65</v>
       </c>
@@ -2152,10 +2173,10 @@
         <v>98</v>
       </c>
       <c r="C110" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A111" s="1" t="s">
         <v>65</v>
       </c>
@@ -2163,10 +2184,10 @@
         <v>99</v>
       </c>
       <c r="C111" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A112" s="1" t="s">
         <v>65</v>
       </c>
@@ -2174,10 +2195,10 @@
         <v>100</v>
       </c>
       <c r="C112" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="113">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A113" s="1" t="s">
         <v>65</v>
       </c>
@@ -2185,10 +2206,10 @@
         <v>58</v>
       </c>
       <c r="C113" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A114" s="1" t="s">
         <v>65</v>
       </c>
@@ -2196,10 +2217,10 @@
         <v>101</v>
       </c>
       <c r="C114" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="1" t="s">
         <v>65</v>
       </c>
@@ -2207,10 +2228,10 @@
         <v>60</v>
       </c>
       <c r="C115" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="1" t="s">
         <v>65</v>
       </c>
@@ -2218,10 +2239,10 @@
         <v>61</v>
       </c>
       <c r="C116" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="1" t="s">
         <v>65</v>
       </c>
@@ -2229,10 +2250,10 @@
         <v>102</v>
       </c>
       <c r="C117" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="1" t="s">
         <v>65</v>
       </c>
@@ -2240,10 +2261,10 @@
         <v>103</v>
       </c>
       <c r="C118" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="119">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="1" t="s">
         <v>65</v>
       </c>
@@ -2251,10 +2272,10 @@
         <v>104</v>
       </c>
       <c r="C119" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="1" t="s">
         <v>65</v>
       </c>
@@ -2262,10 +2283,10 @@
         <v>105</v>
       </c>
       <c r="C120" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="1" t="s">
         <v>65</v>
       </c>
@@ -2273,10 +2294,10 @@
         <v>106</v>
       </c>
       <c r="C121" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="1" t="s">
         <v>65</v>
       </c>
@@ -2284,10 +2305,10 @@
         <v>107</v>
       </c>
       <c r="C122" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A123" s="1" t="s">
         <v>65</v>
       </c>
@@ -2295,10 +2316,10 @@
         <v>108</v>
       </c>
       <c r="C123" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="124">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A124" s="1" t="s">
         <v>109</v>
       </c>
@@ -2309,7 +2330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
         <v>109</v>
       </c>
@@ -2320,7 +2341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
         <v>109</v>
       </c>
@@ -2331,7 +2352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A127" s="1" t="s">
         <v>109</v>
       </c>
@@ -2342,7 +2363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A128" s="1" t="s">
         <v>109</v>
       </c>
@@ -2353,7 +2374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A129" s="1" t="s">
         <v>109</v>
       </c>
@@ -2364,7 +2385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A130" s="1" t="s">
         <v>109</v>
       </c>
@@ -2372,10 +2393,10 @@
         <v>13</v>
       </c>
       <c r="C130" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A131" s="1" t="s">
         <v>109</v>
       </c>
@@ -2383,10 +2404,10 @@
         <v>15</v>
       </c>
       <c r="C131" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A132" s="1" t="s">
         <v>109</v>
       </c>
@@ -2394,10 +2415,10 @@
         <v>75</v>
       </c>
       <c r="C132" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A133" s="1" t="s">
         <v>109</v>
       </c>
@@ -2405,10 +2426,10 @@
         <v>16</v>
       </c>
       <c r="C133" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A134" s="1" t="s">
         <v>109</v>
       </c>
@@ -2416,10 +2437,10 @@
         <v>113</v>
       </c>
       <c r="C134" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A135" s="1" t="s">
         <v>109</v>
       </c>
@@ -2427,10 +2448,10 @@
         <v>114</v>
       </c>
       <c r="C135" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A136" s="1" t="s">
         <v>109</v>
       </c>
@@ -2438,10 +2459,10 @@
         <v>19</v>
       </c>
       <c r="C136" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A137" s="1" t="s">
         <v>109</v>
       </c>
@@ -2449,10 +2470,10 @@
         <v>115</v>
       </c>
       <c r="C137" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A138" s="1" t="s">
         <v>109</v>
       </c>
@@ -2460,10 +2481,10 @@
         <v>116</v>
       </c>
       <c r="C138" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A139" s="1" t="s">
         <v>109</v>
       </c>
@@ -2471,10 +2492,10 @@
         <v>21</v>
       </c>
       <c r="C139" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A140" s="1" t="s">
         <v>109</v>
       </c>
@@ -2482,10 +2503,10 @@
         <v>117</v>
       </c>
       <c r="C140" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A141" s="1" t="s">
         <v>109</v>
       </c>
@@ -2493,10 +2514,10 @@
         <v>23</v>
       </c>
       <c r="C141" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A142" s="1" t="s">
         <v>109</v>
       </c>
@@ -2504,10 +2525,10 @@
         <v>25</v>
       </c>
       <c r="C142" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A143" s="1" t="s">
         <v>109</v>
       </c>
@@ -2515,10 +2536,10 @@
         <v>27</v>
       </c>
       <c r="C143" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A144" s="1" t="s">
         <v>109</v>
       </c>
@@ -2526,10 +2547,10 @@
         <v>118</v>
       </c>
       <c r="C144" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A145" s="1" t="s">
         <v>109</v>
       </c>
@@ -2537,10 +2558,10 @@
         <v>119</v>
       </c>
       <c r="C145" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="146">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A146" s="1" t="s">
         <v>109</v>
       </c>
@@ -2548,10 +2569,10 @@
         <v>33</v>
       </c>
       <c r="C146" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A147" s="1" t="s">
         <v>109</v>
       </c>
@@ -2559,10 +2580,10 @@
         <v>120</v>
       </c>
       <c r="C147" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="148">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A148" s="1" t="s">
         <v>109</v>
       </c>
@@ -2570,10 +2591,10 @@
         <v>121</v>
       </c>
       <c r="C148" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="149">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A149" s="1" t="s">
         <v>109</v>
       </c>
@@ -2581,10 +2602,10 @@
         <v>122</v>
       </c>
       <c r="C149" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A150" s="1" t="s">
         <v>109</v>
       </c>
@@ -2592,10 +2613,10 @@
         <v>35</v>
       </c>
       <c r="C150" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A151" s="1" t="s">
         <v>109</v>
       </c>
@@ -2603,10 +2624,10 @@
         <v>36</v>
       </c>
       <c r="C151" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A152" s="1" t="s">
         <v>109</v>
       </c>
@@ -2614,10 +2635,10 @@
         <v>39</v>
       </c>
       <c r="C152" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A153" s="1" t="s">
         <v>109</v>
       </c>
@@ -2625,10 +2646,10 @@
         <v>123</v>
       </c>
       <c r="C153" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A154" s="1" t="s">
         <v>109</v>
       </c>
@@ -2636,10 +2657,10 @@
         <v>124</v>
       </c>
       <c r="C154" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A155" s="1" t="s">
         <v>109</v>
       </c>
@@ -2647,10 +2668,10 @@
         <v>83</v>
       </c>
       <c r="C155" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A156" s="1" t="s">
         <v>109</v>
       </c>
@@ -2658,10 +2679,10 @@
         <v>125</v>
       </c>
       <c r="C156" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="157">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A157" s="1" t="s">
         <v>109</v>
       </c>
@@ -2669,10 +2690,10 @@
         <v>126</v>
       </c>
       <c r="C157" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A158" s="1" t="s">
         <v>109</v>
       </c>
@@ -2680,10 +2701,10 @@
         <v>88</v>
       </c>
       <c r="C158" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A159" s="1" t="s">
         <v>109</v>
       </c>
@@ -2691,10 +2712,10 @@
         <v>46</v>
       </c>
       <c r="C159" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A160" s="1" t="s">
         <v>109</v>
       </c>
@@ -2702,10 +2723,10 @@
         <v>49</v>
       </c>
       <c r="C160" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A161" s="1" t="s">
         <v>109</v>
       </c>
@@ -2713,10 +2734,10 @@
         <v>90</v>
       </c>
       <c r="C161" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A162" s="1" t="s">
         <v>109</v>
       </c>
@@ -2724,10 +2745,10 @@
         <v>127</v>
       </c>
       <c r="C162" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A163" s="1" t="s">
         <v>109</v>
       </c>
@@ -2735,10 +2756,10 @@
         <v>128</v>
       </c>
       <c r="C163" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="164">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A164" s="1" t="s">
         <v>109</v>
       </c>
@@ -2746,10 +2767,10 @@
         <v>52</v>
       </c>
       <c r="C164" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A165" s="1" t="s">
         <v>109</v>
       </c>
@@ -2757,10 +2778,10 @@
         <v>129</v>
       </c>
       <c r="C165" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="166">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A166" s="1" t="s">
         <v>109</v>
       </c>
@@ -2768,10 +2789,10 @@
         <v>130</v>
       </c>
       <c r="C166" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A167" s="1" t="s">
         <v>109</v>
       </c>
@@ -2779,10 +2800,10 @@
         <v>131</v>
       </c>
       <c r="C167" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="168">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A168" s="1" t="s">
         <v>109</v>
       </c>
@@ -2790,10 +2811,10 @@
         <v>54</v>
       </c>
       <c r="C168" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A169" s="1" t="s">
         <v>109</v>
       </c>
@@ -2801,10 +2822,10 @@
         <v>132</v>
       </c>
       <c r="C169" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="170">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A170" s="1" t="s">
         <v>109</v>
       </c>
@@ -2812,10 +2833,10 @@
         <v>133</v>
       </c>
       <c r="C170" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A171" s="1" t="s">
         <v>109</v>
       </c>
@@ -2823,10 +2844,10 @@
         <v>56</v>
       </c>
       <c r="C171" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="172">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A172" s="1" t="s">
         <v>109</v>
       </c>
@@ -2834,10 +2855,10 @@
         <v>134</v>
       </c>
       <c r="C172" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="173">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A173" s="1" t="s">
         <v>109</v>
       </c>
@@ -2845,10 +2866,10 @@
         <v>135</v>
       </c>
       <c r="C173" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="174">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A174" s="1" t="s">
         <v>109</v>
       </c>
@@ -2856,10 +2877,10 @@
         <v>136</v>
       </c>
       <c r="C174" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="175">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A175" s="1" t="s">
         <v>109</v>
       </c>
@@ -2867,10 +2888,10 @@
         <v>97</v>
       </c>
       <c r="C175" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="176">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A176" s="1" t="s">
         <v>109</v>
       </c>
@@ -2878,10 +2899,10 @@
         <v>58</v>
       </c>
       <c r="C176" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="177">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A177" s="1" t="s">
         <v>109</v>
       </c>
@@ -2889,10 +2910,10 @@
         <v>101</v>
       </c>
       <c r="C177" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="178">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A178" s="1" t="s">
         <v>109</v>
       </c>
@@ -2900,10 +2921,10 @@
         <v>60</v>
       </c>
       <c r="C178" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="179">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A179" s="1" t="s">
         <v>109</v>
       </c>
@@ -2911,10 +2932,10 @@
         <v>61</v>
       </c>
       <c r="C179" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="180">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A180" s="1" t="s">
         <v>109</v>
       </c>
@@ -2922,10 +2943,10 @@
         <v>137</v>
       </c>
       <c r="C180" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="181">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A181" s="1" t="s">
         <v>109</v>
       </c>
@@ -2933,10 +2954,10 @@
         <v>106</v>
       </c>
       <c r="C181" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="182">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A182" s="1" t="s">
         <v>109</v>
       </c>
@@ -2944,10 +2965,10 @@
         <v>107</v>
       </c>
       <c r="C182" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="183">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A183" s="1" t="s">
         <v>109</v>
       </c>
@@ -2955,10 +2976,10 @@
         <v>138</v>
       </c>
       <c r="C183" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="184">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A184" s="1" t="s">
         <v>109</v>
       </c>
@@ -2966,10 +2987,10 @@
         <v>139</v>
       </c>
       <c r="C184" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="185">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A185" s="1" t="s">
         <v>109</v>
       </c>
@@ -2977,10 +2998,10 @@
         <v>140</v>
       </c>
       <c r="C185" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="186">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A186" s="1" t="s">
         <v>141</v>
       </c>
@@ -2988,10 +3009,10 @@
         <v>73</v>
       </c>
       <c r="C186" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A187" s="1" t="s">
         <v>141</v>
       </c>
@@ -2999,10 +3020,10 @@
         <v>74</v>
       </c>
       <c r="C187" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A188" s="1" t="s">
         <v>141</v>
       </c>
@@ -3010,10 +3031,10 @@
         <v>142</v>
       </c>
       <c r="C188" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A189" s="1" t="s">
         <v>141</v>
       </c>
@@ -3021,10 +3042,10 @@
         <v>16</v>
       </c>
       <c r="C189" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A190" s="1" t="s">
         <v>141</v>
       </c>
@@ -3032,10 +3053,10 @@
         <v>143</v>
       </c>
       <c r="C190" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A191" s="1" t="s">
         <v>141</v>
       </c>
@@ -3043,10 +3064,10 @@
         <v>22</v>
       </c>
       <c r="C191" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A192" s="1" t="s">
         <v>141</v>
       </c>
@@ -3054,10 +3075,10 @@
         <v>78</v>
       </c>
       <c r="C192" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A193" s="1" t="s">
         <v>141</v>
       </c>
@@ -3065,10 +3086,10 @@
         <v>144</v>
       </c>
       <c r="C193" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A194" s="1" t="s">
         <v>141</v>
       </c>
@@ -3076,10 +3097,10 @@
         <v>80</v>
       </c>
       <c r="C194" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A195" s="1" t="s">
         <v>141</v>
       </c>
@@ -3087,10 +3108,10 @@
         <v>145</v>
       </c>
       <c r="C195" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A196" s="1" t="s">
         <v>141</v>
       </c>
@@ -3098,10 +3119,10 @@
         <v>146</v>
       </c>
       <c r="C196" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A197" s="1" t="s">
         <v>141</v>
       </c>
@@ -3109,10 +3130,10 @@
         <v>81</v>
       </c>
       <c r="C197" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="198">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A198" s="1" t="s">
         <v>141</v>
       </c>
@@ -3120,10 +3141,10 @@
         <v>147</v>
       </c>
       <c r="C198" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A199" s="1" t="s">
         <v>141</v>
       </c>
@@ -3131,10 +3152,10 @@
         <v>39</v>
       </c>
       <c r="C199" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A200" s="1" t="s">
         <v>141</v>
       </c>
@@ -3142,10 +3163,10 @@
         <v>148</v>
       </c>
       <c r="C200" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="201">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A201" s="1" t="s">
         <v>141</v>
       </c>
@@ -3153,10 +3174,10 @@
         <v>83</v>
       </c>
       <c r="C201" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A202" s="1" t="s">
         <v>141</v>
       </c>
@@ -3164,10 +3185,10 @@
         <v>149</v>
       </c>
       <c r="C202" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="203">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A203" s="1" t="s">
         <v>141</v>
       </c>
@@ -3175,10 +3196,10 @@
         <v>150</v>
       </c>
       <c r="C203" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A204" s="1" t="s">
         <v>141</v>
       </c>
@@ -3186,10 +3207,10 @@
         <v>88</v>
       </c>
       <c r="C204" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A205" s="1" t="s">
         <v>141</v>
       </c>
@@ -3197,10 +3218,10 @@
         <v>151</v>
       </c>
       <c r="C205" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="206">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A206" s="1" t="s">
         <v>141</v>
       </c>
@@ -3208,10 +3229,10 @@
         <v>91</v>
       </c>
       <c r="C206" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A207" s="1" t="s">
         <v>141</v>
       </c>
@@ -3219,10 +3240,10 @@
         <v>92</v>
       </c>
       <c r="C207" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A208" s="1" t="s">
         <v>141</v>
       </c>
@@ -3230,10 +3251,10 @@
         <v>152</v>
       </c>
       <c r="C208" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A209" s="1" t="s">
         <v>141</v>
       </c>
@@ -3241,10 +3262,10 @@
         <v>94</v>
       </c>
       <c r="C209" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="210">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A210" s="1" t="s">
         <v>141</v>
       </c>
@@ -3252,10 +3273,10 @@
         <v>95</v>
       </c>
       <c r="C210" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="211">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A211" s="1" t="s">
         <v>141</v>
       </c>
@@ -3263,10 +3284,10 @@
         <v>153</v>
       </c>
       <c r="C211" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="212">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A212" s="1" t="s">
         <v>141</v>
       </c>
@@ -3274,10 +3295,10 @@
         <v>154</v>
       </c>
       <c r="C212" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="213">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A213" s="1" t="s">
         <v>141</v>
       </c>
@@ -3285,10 +3306,10 @@
         <v>98</v>
       </c>
       <c r="C213" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="214">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A214" s="1" t="s">
         <v>155</v>
       </c>
@@ -3296,10 +3317,10 @@
         <v>13</v>
       </c>
       <c r="C214" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A215" s="1" t="s">
         <v>155</v>
       </c>
@@ -3307,10 +3328,10 @@
         <v>16</v>
       </c>
       <c r="C215" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A216" s="1" t="s">
         <v>155</v>
       </c>
@@ -3318,10 +3339,10 @@
         <v>113</v>
       </c>
       <c r="C216" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A217" s="1" t="s">
         <v>155</v>
       </c>
@@ -3329,10 +3350,10 @@
         <v>156</v>
       </c>
       <c r="C217" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A218" s="1" t="s">
         <v>155</v>
       </c>
@@ -3340,10 +3361,10 @@
         <v>115</v>
       </c>
       <c r="C218" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A219" s="1" t="s">
         <v>155</v>
       </c>
@@ -3351,10 +3372,10 @@
         <v>116</v>
       </c>
       <c r="C219" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A220" s="1" t="s">
         <v>155</v>
       </c>
@@ -3362,10 +3383,10 @@
         <v>157</v>
       </c>
       <c r="C220" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A221" s="1" t="s">
         <v>155</v>
       </c>
@@ -3373,10 +3394,10 @@
         <v>158</v>
       </c>
       <c r="C221" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A222" s="1" t="s">
         <v>155</v>
       </c>
@@ -3384,10 +3405,10 @@
         <v>23</v>
       </c>
       <c r="C222" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A223" s="1" t="s">
         <v>155</v>
       </c>
@@ -3395,10 +3416,10 @@
         <v>25</v>
       </c>
       <c r="C223" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A224" s="1" t="s">
         <v>155</v>
       </c>
@@ -3406,10 +3427,10 @@
         <v>118</v>
       </c>
       <c r="C224" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A225" s="1" t="s">
         <v>155</v>
       </c>
@@ -3417,10 +3438,10 @@
         <v>119</v>
       </c>
       <c r="C225" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A226" s="1" t="s">
         <v>155</v>
       </c>
@@ -3428,10 +3449,10 @@
         <v>39</v>
       </c>
       <c r="C226" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A227" s="1" t="s">
         <v>155</v>
       </c>
@@ -3439,10 +3460,10 @@
         <v>124</v>
       </c>
       <c r="C227" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A228" s="1" t="s">
         <v>155</v>
       </c>
@@ -3450,10 +3471,10 @@
         <v>83</v>
       </c>
       <c r="C228" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="229">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A229" s="1" t="s">
         <v>155</v>
       </c>
@@ -3461,10 +3482,10 @@
         <v>43</v>
       </c>
       <c r="C229" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A230" s="1" t="s">
         <v>155</v>
       </c>
@@ -3472,10 +3493,10 @@
         <v>125</v>
       </c>
       <c r="C230" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A231" s="1" t="s">
         <v>155</v>
       </c>
@@ -3483,10 +3504,10 @@
         <v>159</v>
       </c>
       <c r="C231" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="232">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A232" s="1" t="s">
         <v>155</v>
       </c>
@@ -3494,10 +3515,10 @@
         <v>88</v>
       </c>
       <c r="C232" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A233" s="1" t="s">
         <v>155</v>
       </c>
@@ -3505,10 +3526,10 @@
         <v>160</v>
       </c>
       <c r="C233" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A234" s="1" t="s">
         <v>155</v>
       </c>
@@ -3516,10 +3537,10 @@
         <v>49</v>
       </c>
       <c r="C234" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A235" s="1" t="s">
         <v>155</v>
       </c>
@@ -3527,10 +3548,10 @@
         <v>90</v>
       </c>
       <c r="C235" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A237" s="1" t="s">
         <v>161</v>
       </c>
@@ -3541,7 +3562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A238" s="1" t="s">
         <v>161</v>
       </c>
@@ -3552,7 +3573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A239" s="1" t="s">
         <v>161</v>
       </c>
@@ -3563,7 +3584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A240" s="1" t="s">
         <v>161</v>
       </c>
@@ -3574,7 +3595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A241" s="1" t="s">
         <v>161</v>
       </c>
@@ -3585,7 +3606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A242" s="1" t="s">
         <v>161</v>
       </c>
@@ -3596,7 +3617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A243" s="1" t="s">
         <v>161</v>
       </c>
@@ -3607,7 +3628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A244" s="1" t="s">
         <v>161</v>
       </c>
@@ -3618,7 +3639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A245" s="1" t="s">
         <v>161</v>
       </c>
@@ -3629,7 +3650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A246" s="1" t="s">
         <v>161</v>
       </c>
@@ -3640,7 +3661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A247" s="1" t="s">
         <v>161</v>
       </c>
@@ -3651,7 +3672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A248" s="1" t="s">
         <v>161</v>
       </c>
@@ -3662,7 +3683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A249" s="1" t="s">
         <v>161</v>
       </c>
@@ -3673,7 +3694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A250" s="1" t="s">
         <v>161</v>
       </c>
@@ -3684,7 +3705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A251" s="1" t="s">
         <v>161</v>
       </c>
@@ -3695,7 +3716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A252" s="1" t="s">
         <v>161</v>
       </c>
@@ -3703,10 +3724,10 @@
         <v>168</v>
       </c>
       <c r="C252" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A253" s="1" t="s">
         <v>161</v>
       </c>
@@ -3714,10 +3735,10 @@
         <v>15</v>
       </c>
       <c r="C253" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A254" s="1" t="s">
         <v>161</v>
       </c>
@@ -3725,10 +3746,10 @@
         <v>169</v>
       </c>
       <c r="C254" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A255" s="1" t="s">
         <v>161</v>
       </c>
@@ -3736,10 +3757,10 @@
         <v>170</v>
       </c>
       <c r="C255" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A256" s="1" t="s">
         <v>161</v>
       </c>
@@ -3747,10 +3768,10 @@
         <v>17</v>
       </c>
       <c r="C256" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A257" s="1" t="s">
         <v>161</v>
       </c>
@@ -3758,10 +3779,10 @@
         <v>113</v>
       </c>
       <c r="C257" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A258" s="1" t="s">
         <v>161</v>
       </c>
@@ -3769,10 +3790,10 @@
         <v>171</v>
       </c>
       <c r="C258" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="259">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A259" s="1" t="s">
         <v>161</v>
       </c>
@@ -3780,10 +3801,10 @@
         <v>172</v>
       </c>
       <c r="C259" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A260" s="1" t="s">
         <v>161</v>
       </c>
@@ -3791,10 +3812,10 @@
         <v>20</v>
       </c>
       <c r="C260" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A261" s="1" t="s">
         <v>161</v>
       </c>
@@ -3802,10 +3823,10 @@
         <v>115</v>
       </c>
       <c r="C261" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="262">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A262" s="1" t="s">
         <v>161</v>
       </c>
@@ -3813,10 +3834,10 @@
         <v>117</v>
       </c>
       <c r="C262" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="263">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A263" s="1" t="s">
         <v>161</v>
       </c>
@@ -3824,10 +3845,10 @@
         <v>173</v>
       </c>
       <c r="C263" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="264">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A264" s="1" t="s">
         <v>161</v>
       </c>
@@ -3835,10 +3856,10 @@
         <v>174</v>
       </c>
       <c r="C264" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A265" s="1" t="s">
         <v>161</v>
       </c>
@@ -3846,10 +3867,10 @@
         <v>175</v>
       </c>
       <c r="C265" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="266">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A266" s="1" t="s">
         <v>161</v>
       </c>
@@ -3857,10 +3878,10 @@
         <v>176</v>
       </c>
       <c r="C266" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="267">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A267" s="1" t="s">
         <v>161</v>
       </c>
@@ -3868,10 +3889,10 @@
         <v>24</v>
       </c>
       <c r="C267" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="268">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A268" s="1" t="s">
         <v>161</v>
       </c>
@@ -3879,10 +3900,10 @@
         <v>27</v>
       </c>
       <c r="C268" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="269">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A269" s="1" t="s">
         <v>161</v>
       </c>
@@ -3890,10 +3911,10 @@
         <v>177</v>
       </c>
       <c r="C269" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="270">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A270" s="1" t="s">
         <v>161</v>
       </c>
@@ -3901,10 +3922,10 @@
         <v>28</v>
       </c>
       <c r="C270" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="271">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A271" s="1" t="s">
         <v>161</v>
       </c>
@@ -3912,10 +3933,10 @@
         <v>178</v>
       </c>
       <c r="C271" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A272" s="1" t="s">
         <v>161</v>
       </c>
@@ -3923,10 +3944,10 @@
         <v>30</v>
       </c>
       <c r="C272" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A273" s="1" t="s">
         <v>161</v>
       </c>
@@ -3934,10 +3955,10 @@
         <v>31</v>
       </c>
       <c r="C273" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="274">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A274" s="1" t="s">
         <v>161</v>
       </c>
@@ -3945,10 +3966,10 @@
         <v>179</v>
       </c>
       <c r="C274" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A275" s="1" t="s">
         <v>161</v>
       </c>
@@ -3956,10 +3977,10 @@
         <v>119</v>
       </c>
       <c r="C275" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="276">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A276" s="1" t="s">
         <v>161</v>
       </c>
@@ -3967,10 +3988,10 @@
         <v>32</v>
       </c>
       <c r="C276" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="277">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A277" s="1" t="s">
         <v>161</v>
       </c>
@@ -3978,10 +3999,10 @@
         <v>33</v>
       </c>
       <c r="C277" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A278" s="1" t="s">
         <v>161</v>
       </c>
@@ -3989,10 +4010,10 @@
         <v>180</v>
       </c>
       <c r="C278" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="279">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A279" s="1" t="s">
         <v>161</v>
       </c>
@@ -4000,10 +4021,10 @@
         <v>122</v>
       </c>
       <c r="C279" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A280" s="1" t="s">
         <v>161</v>
       </c>
@@ -4011,10 +4032,10 @@
         <v>36</v>
       </c>
       <c r="C280" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A281" s="1" t="s">
         <v>161</v>
       </c>
@@ -4022,10 +4043,10 @@
         <v>37</v>
       </c>
       <c r="C281" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A282" s="1" t="s">
         <v>161</v>
       </c>
@@ -4033,10 +4054,10 @@
         <v>38</v>
       </c>
       <c r="C282" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="283">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A283" s="1" t="s">
         <v>161</v>
       </c>
@@ -4044,10 +4065,10 @@
         <v>181</v>
       </c>
       <c r="C283" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="284">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A284" s="1" t="s">
         <v>161</v>
       </c>
@@ -4055,10 +4076,10 @@
         <v>182</v>
       </c>
       <c r="C284" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="285">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A285" s="1" t="s">
         <v>161</v>
       </c>
@@ -4066,10 +4087,10 @@
         <v>40</v>
       </c>
       <c r="C285" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A286" s="1" t="s">
         <v>161</v>
       </c>
@@ -4077,10 +4098,10 @@
         <v>183</v>
       </c>
       <c r="C286" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A287" s="1" t="s">
         <v>161</v>
       </c>
@@ -4088,10 +4109,10 @@
         <v>41</v>
       </c>
       <c r="C287" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="288">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A288" s="1" t="s">
         <v>161</v>
       </c>
@@ -4099,10 +4120,10 @@
         <v>184</v>
       </c>
       <c r="C288" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="289">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A289" s="1" t="s">
         <v>161</v>
       </c>
@@ -4110,10 +4131,10 @@
         <v>42</v>
       </c>
       <c r="C289" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A290" s="1" t="s">
         <v>161</v>
       </c>
@@ -4121,10 +4142,10 @@
         <v>185</v>
       </c>
       <c r="C290" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A291" s="1" t="s">
         <v>161</v>
       </c>
@@ -4132,10 +4153,10 @@
         <v>186</v>
       </c>
       <c r="C291" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="292">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A292" s="1" t="s">
         <v>161</v>
       </c>
@@ -4143,10 +4164,10 @@
         <v>187</v>
       </c>
       <c r="C292" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="293">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A293" s="1" t="s">
         <v>161</v>
       </c>
@@ -4154,10 +4175,10 @@
         <v>88</v>
       </c>
       <c r="C293" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="294">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A294" s="1" t="s">
         <v>161</v>
       </c>
@@ -4165,10 +4186,10 @@
         <v>45</v>
       </c>
       <c r="C294" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="295">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A295" s="1" t="s">
         <v>161</v>
       </c>
@@ -4176,10 +4197,10 @@
         <v>188</v>
       </c>
       <c r="C295" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="296">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A296" s="1" t="s">
         <v>161</v>
       </c>
@@ -4187,10 +4208,10 @@
         <v>189</v>
       </c>
       <c r="C296" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="297">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A297" s="1" t="s">
         <v>161</v>
       </c>
@@ -4198,10 +4219,10 @@
         <v>190</v>
       </c>
       <c r="C297" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="298">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A298" s="1" t="s">
         <v>161</v>
       </c>
@@ -4209,10 +4230,10 @@
         <v>191</v>
       </c>
       <c r="C298" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="299">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A299" s="1" t="s">
         <v>161</v>
       </c>
@@ -4220,10 +4241,10 @@
         <v>48</v>
       </c>
       <c r="C299" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="300">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A300" s="1" t="s">
         <v>161</v>
       </c>
@@ -4231,10 +4252,10 @@
         <v>192</v>
       </c>
       <c r="C300" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="301">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A301" s="1" t="s">
         <v>161</v>
       </c>
@@ -4242,10 +4263,10 @@
         <v>90</v>
       </c>
       <c r="C301" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="302">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A302" s="1" t="s">
         <v>161</v>
       </c>
@@ -4253,10 +4274,10 @@
         <v>127</v>
       </c>
       <c r="C302" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="303">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A303" s="1" t="s">
         <v>161</v>
       </c>
@@ -4264,10 +4285,10 @@
         <v>193</v>
       </c>
       <c r="C303" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="304">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A304" s="1" t="s">
         <v>161</v>
       </c>
@@ -4275,10 +4296,10 @@
         <v>51</v>
       </c>
       <c r="C304" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="305">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A305" s="1" t="s">
         <v>161</v>
       </c>
@@ -4286,10 +4307,10 @@
         <v>94</v>
       </c>
       <c r="C305" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="306">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A306" s="1" t="s">
         <v>161</v>
       </c>
@@ -4297,10 +4318,10 @@
         <v>128</v>
       </c>
       <c r="C306" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="307">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A307" s="1" t="s">
         <v>161</v>
       </c>
@@ -4308,10 +4329,10 @@
         <v>52</v>
       </c>
       <c r="C307" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="308">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A308" s="1" t="s">
         <v>161</v>
       </c>
@@ -4319,10 +4340,10 @@
         <v>53</v>
       </c>
       <c r="C308" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="309">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A309" s="1" t="s">
         <v>161</v>
       </c>
@@ -4330,10 +4351,10 @@
         <v>131</v>
       </c>
       <c r="C309" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="310">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A310" s="1" t="s">
         <v>161</v>
       </c>
@@ -4341,10 +4362,10 @@
         <v>55</v>
       </c>
       <c r="C310" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="311">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A311" s="1" t="s">
         <v>161</v>
       </c>
@@ -4352,10 +4373,10 @@
         <v>133</v>
       </c>
       <c r="C311" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="312">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A312" s="1" t="s">
         <v>161</v>
       </c>
@@ -4363,10 +4384,10 @@
         <v>56</v>
       </c>
       <c r="C312" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="313">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A313" s="1" t="s">
         <v>161</v>
       </c>
@@ -4374,10 +4395,10 @@
         <v>134</v>
       </c>
       <c r="C313" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="314">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A314" s="1" t="s">
         <v>161</v>
       </c>
@@ -4385,10 +4406,10 @@
         <v>135</v>
       </c>
       <c r="C314" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="315">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A315" s="1" t="s">
         <v>161</v>
       </c>
@@ -4396,10 +4417,10 @@
         <v>194</v>
       </c>
       <c r="C315" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="316">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A316" s="1" t="s">
         <v>161</v>
       </c>
@@ -4407,10 +4428,10 @@
         <v>195</v>
       </c>
       <c r="C316" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="317">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A317" s="1" t="s">
         <v>161</v>
       </c>
@@ -4418,10 +4439,10 @@
         <v>57</v>
       </c>
       <c r="C317" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="318">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A318" s="1" t="s">
         <v>161</v>
       </c>
@@ -4429,10 +4450,10 @@
         <v>59</v>
       </c>
       <c r="C318" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="319">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A319" s="1" t="s">
         <v>161</v>
       </c>
@@ -4440,10 +4461,10 @@
         <v>101</v>
       </c>
       <c r="C319" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="320">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A320" s="1" t="s">
         <v>161</v>
       </c>
@@ -4451,10 +4472,10 @@
         <v>62</v>
       </c>
       <c r="C320" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="321">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A321" s="1" t="s">
         <v>161</v>
       </c>
@@ -4462,10 +4483,10 @@
         <v>102</v>
       </c>
       <c r="C321" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="322">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A322" s="1" t="s">
         <v>161</v>
       </c>
@@ -4473,10 +4494,10 @@
         <v>137</v>
       </c>
       <c r="C322" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="323">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A323" s="1" t="s">
         <v>161</v>
       </c>
@@ -4484,10 +4505,10 @@
         <v>196</v>
       </c>
       <c r="C323" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="324">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A324" s="1" t="s">
         <v>161</v>
       </c>
@@ -4495,10 +4516,10 @@
         <v>197</v>
       </c>
       <c r="C324" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="325">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A325" s="1" t="s">
         <v>161</v>
       </c>
@@ -4506,10 +4527,10 @@
         <v>198</v>
       </c>
       <c r="C325" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="326">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A326" s="1" t="s">
         <v>161</v>
       </c>
@@ -4517,10 +4538,10 @@
         <v>199</v>
       </c>
       <c r="C326" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="327">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A327" s="1" t="s">
         <v>161</v>
       </c>
@@ -4528,10 +4549,10 @@
         <v>63</v>
       </c>
       <c r="C327" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="328">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A328" s="1" t="s">
         <v>161</v>
       </c>
@@ -4539,10 +4560,10 @@
         <v>200</v>
       </c>
       <c r="C328" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="329">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A329" s="1" t="s">
         <v>161</v>
       </c>
@@ -4550,10 +4571,10 @@
         <v>138</v>
       </c>
       <c r="C329" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="330">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A330" s="1" t="s">
         <v>201</v>
       </c>
@@ -4564,7 +4585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A331" s="1" t="s">
         <v>201</v>
       </c>
@@ -4575,7 +4596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A332" s="1" t="s">
         <v>201</v>
       </c>
@@ -4586,7 +4607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A333" s="1" t="s">
         <v>201</v>
       </c>
@@ -4597,7 +4618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A334" s="1" t="s">
         <v>201</v>
       </c>
@@ -4608,7 +4629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A335" s="1" t="s">
         <v>201</v>
       </c>
@@ -4619,7 +4640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A336" s="1" t="s">
         <v>201</v>
       </c>
@@ -4630,7 +4651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A337" s="1" t="s">
         <v>201</v>
       </c>
@@ -4641,7 +4662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A338" s="1" t="s">
         <v>201</v>
       </c>
@@ -4652,7 +4673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A339" s="1" t="s">
         <v>201</v>
       </c>
@@ -4663,7 +4684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A340" s="1" t="s">
         <v>201</v>
       </c>
@@ -4671,10 +4692,10 @@
         <v>203</v>
       </c>
       <c r="C340" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A341" s="1" t="s">
         <v>201</v>
       </c>
@@ -4682,10 +4703,10 @@
         <v>204</v>
       </c>
       <c r="C341" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A342" s="1" t="s">
         <v>201</v>
       </c>
@@ -4693,10 +4714,10 @@
         <v>15</v>
       </c>
       <c r="C342" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A343" s="1" t="s">
         <v>201</v>
       </c>
@@ -4704,10 +4725,10 @@
         <v>171</v>
       </c>
       <c r="C343" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="344">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A344" s="1" t="s">
         <v>201</v>
       </c>
@@ -4715,10 +4736,10 @@
         <v>205</v>
       </c>
       <c r="C344" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A345" s="1" t="s">
         <v>201</v>
       </c>
@@ -4726,10 +4747,10 @@
         <v>206</v>
       </c>
       <c r="C345" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A346" s="1" t="s">
         <v>201</v>
       </c>
@@ -4737,10 +4758,10 @@
         <v>78</v>
       </c>
       <c r="C346" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A347" s="1" t="s">
         <v>201</v>
       </c>
@@ -4748,10 +4769,10 @@
         <v>177</v>
       </c>
       <c r="C347" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="348">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A348" s="1" t="s">
         <v>201</v>
       </c>
@@ -4759,10 +4780,10 @@
         <v>30</v>
       </c>
       <c r="C348" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="349">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A349" s="1" t="s">
         <v>201</v>
       </c>
@@ -4770,10 +4791,10 @@
         <v>31</v>
       </c>
       <c r="C349" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="350">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A350" s="1" t="s">
         <v>201</v>
       </c>
@@ -4781,10 +4802,10 @@
         <v>179</v>
       </c>
       <c r="C350" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="351">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A351" s="1" t="s">
         <v>201</v>
       </c>
@@ -4792,10 +4813,10 @@
         <v>34</v>
       </c>
       <c r="C351" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="352">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A352" s="1" t="s">
         <v>201</v>
       </c>
@@ -4803,10 +4824,10 @@
         <v>36</v>
       </c>
       <c r="C352" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="353">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A353" s="1" t="s">
         <v>201</v>
       </c>
@@ -4814,10 +4835,10 @@
         <v>37</v>
       </c>
       <c r="C353" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="354">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A354" s="1" t="s">
         <v>201</v>
       </c>
@@ -4825,10 +4846,10 @@
         <v>181</v>
       </c>
       <c r="C354" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="355">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A355" s="1" t="s">
         <v>201</v>
       </c>
@@ -4836,10 +4857,10 @@
         <v>182</v>
       </c>
       <c r="C355" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="356">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A356" s="1" t="s">
         <v>201</v>
       </c>
@@ -4847,10 +4868,10 @@
         <v>207</v>
       </c>
       <c r="C356" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="357">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A357" s="1" t="s">
         <v>201</v>
       </c>
@@ -4858,10 +4879,10 @@
         <v>184</v>
       </c>
       <c r="C357" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="358">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A358" s="1" t="s">
         <v>201</v>
       </c>
@@ -4869,10 +4890,10 @@
         <v>42</v>
       </c>
       <c r="C358" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="359">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A359" s="1" t="s">
         <v>201</v>
       </c>
@@ -4880,10 +4901,10 @@
         <v>187</v>
       </c>
       <c r="C359" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="360">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A360" s="1" t="s">
         <v>201</v>
       </c>
@@ -4891,10 +4912,10 @@
         <v>45</v>
       </c>
       <c r="C360" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="361">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A361" s="1" t="s">
         <v>201</v>
       </c>
@@ -4902,10 +4923,10 @@
         <v>189</v>
       </c>
       <c r="C361" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="362">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A362" s="1" t="s">
         <v>201</v>
       </c>
@@ -4913,10 +4934,10 @@
         <v>190</v>
       </c>
       <c r="C362" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="363">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A363" s="1" t="s">
         <v>201</v>
       </c>
@@ -4924,10 +4945,10 @@
         <v>208</v>
       </c>
       <c r="C363" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="364">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A364" s="1" t="s">
         <v>201</v>
       </c>
@@ -4935,10 +4956,10 @@
         <v>48</v>
       </c>
       <c r="C364" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="365">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A365" s="1" t="s">
         <v>201</v>
       </c>
@@ -4946,10 +4967,10 @@
         <v>91</v>
       </c>
       <c r="C365" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="366">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A366" s="1" t="s">
         <v>201</v>
       </c>
@@ -4957,10 +4978,10 @@
         <v>209</v>
       </c>
       <c r="C366" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="367">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A367" s="1" t="s">
         <v>201</v>
       </c>
@@ -4968,10 +4989,10 @@
         <v>94</v>
       </c>
       <c r="C367" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="368">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A368" s="1" t="s">
         <v>201</v>
       </c>
@@ -4979,10 +5000,10 @@
         <v>128</v>
       </c>
       <c r="C368" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="369">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A369" s="1" t="s">
         <v>201</v>
       </c>
@@ -4990,10 +5011,10 @@
         <v>53</v>
       </c>
       <c r="C369" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="370">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A370" s="1" t="s">
         <v>201</v>
       </c>
@@ -5001,10 +5022,10 @@
         <v>59</v>
       </c>
       <c r="C370" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="371">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A371" s="1" t="s">
         <v>201</v>
       </c>
@@ -5012,10 +5033,10 @@
         <v>196</v>
       </c>
       <c r="C371" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="372">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A372" s="1" t="s">
         <v>201</v>
       </c>
@@ -5023,10 +5044,10 @@
         <v>198</v>
       </c>
       <c r="C372" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="373">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A373" s="1" t="s">
         <v>201</v>
       </c>
@@ -5034,10 +5055,10 @@
         <v>104</v>
       </c>
       <c r="C373" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="374">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A374" s="1" t="s">
         <v>201</v>
       </c>
@@ -5045,10 +5066,10 @@
         <v>63</v>
       </c>
       <c r="C374" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="375">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A375" s="1" t="s">
         <v>201</v>
       </c>
@@ -5056,10 +5077,10 @@
         <v>210</v>
       </c>
       <c r="C375" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="376">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A376" s="1" t="s">
         <v>211</v>
       </c>
@@ -5070,7 +5091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A377" s="1" t="s">
         <v>211</v>
       </c>
@@ -5081,7 +5102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A378" s="1" t="s">
         <v>211</v>
       </c>
@@ -5092,7 +5113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A379" s="1" t="s">
         <v>211</v>
       </c>
@@ -5103,7 +5124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A380" s="1" t="s">
         <v>211</v>
       </c>
@@ -5114,7 +5135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A381" s="1" t="s">
         <v>211</v>
       </c>
@@ -5125,7 +5146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A382" s="1" t="s">
         <v>211</v>
       </c>
@@ -5136,7 +5157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A383" s="1" t="s">
         <v>211</v>
       </c>
@@ -5147,7 +5168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A384" s="1" t="s">
         <v>211</v>
       </c>
@@ -5158,7 +5179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A385" s="1" t="s">
         <v>211</v>
       </c>
@@ -5169,7 +5190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A386" s="1" t="s">
         <v>211</v>
       </c>
@@ -5180,7 +5201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A387" s="1" t="s">
         <v>211</v>
       </c>
@@ -5191,7 +5212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A388" s="1" t="s">
         <v>211</v>
       </c>
@@ -5202,7 +5223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A389" s="1" t="s">
         <v>211</v>
       </c>
@@ -5213,7 +5234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A390" s="1" t="s">
         <v>211</v>
       </c>
@@ -5224,7 +5245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A391" s="1" t="s">
         <v>211</v>
       </c>
@@ -5235,7 +5256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A392" s="1" t="s">
         <v>211</v>
       </c>
@@ -5243,10 +5264,10 @@
         <v>168</v>
       </c>
       <c r="C392" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A393" s="1" t="s">
         <v>211</v>
       </c>
@@ -5254,10 +5275,10 @@
         <v>15</v>
       </c>
       <c r="C393" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="394">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A394" s="1" t="s">
         <v>211</v>
       </c>
@@ -5265,10 +5286,10 @@
         <v>169</v>
       </c>
       <c r="C394" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="395">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A395" s="1" t="s">
         <v>211</v>
       </c>
@@ -5276,10 +5297,10 @@
         <v>170</v>
       </c>
       <c r="C395" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="396">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A396" s="1" t="s">
         <v>211</v>
       </c>
@@ -5287,10 +5308,10 @@
         <v>17</v>
       </c>
       <c r="C396" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A397" s="1" t="s">
         <v>211</v>
       </c>
@@ -5298,10 +5319,10 @@
         <v>113</v>
       </c>
       <c r="C397" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A398" s="1" t="s">
         <v>211</v>
       </c>
@@ -5309,10 +5330,10 @@
         <v>171</v>
       </c>
       <c r="C398" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A399" s="1" t="s">
         <v>211</v>
       </c>
@@ -5320,10 +5341,10 @@
         <v>172</v>
       </c>
       <c r="C399" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A400" s="1" t="s">
         <v>211</v>
       </c>
@@ -5331,10 +5352,10 @@
         <v>20</v>
       </c>
       <c r="C400" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A401" s="1" t="s">
         <v>211</v>
       </c>
@@ -5342,10 +5363,10 @@
         <v>212</v>
       </c>
       <c r="C401" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A402" s="1" t="s">
         <v>211</v>
       </c>
@@ -5353,10 +5374,10 @@
         <v>115</v>
       </c>
       <c r="C402" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A403" s="1" t="s">
         <v>211</v>
       </c>
@@ -5364,10 +5385,10 @@
         <v>213</v>
       </c>
       <c r="C403" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A404" s="1" t="s">
         <v>211</v>
       </c>
@@ -5375,10 +5396,10 @@
         <v>117</v>
       </c>
       <c r="C404" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A405" s="1" t="s">
         <v>211</v>
       </c>
@@ -5386,10 +5407,10 @@
         <v>23</v>
       </c>
       <c r="C405" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="406">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A406" s="1" t="s">
         <v>211</v>
       </c>
@@ -5397,10 +5418,10 @@
         <v>173</v>
       </c>
       <c r="C406" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="407">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A407" s="1" t="s">
         <v>211</v>
       </c>
@@ -5408,10 +5429,10 @@
         <v>174</v>
       </c>
       <c r="C407" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="408">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A408" s="1" t="s">
         <v>211</v>
       </c>
@@ -5419,10 +5440,10 @@
         <v>78</v>
       </c>
       <c r="C408" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A409" s="1" t="s">
         <v>211</v>
       </c>
@@ -5430,10 +5451,10 @@
         <v>175</v>
       </c>
       <c r="C409" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A410" s="1" t="s">
         <v>211</v>
       </c>
@@ -5441,10 +5462,10 @@
         <v>176</v>
       </c>
       <c r="C410" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="411">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A411" s="1" t="s">
         <v>211</v>
       </c>
@@ -5452,10 +5473,10 @@
         <v>24</v>
       </c>
       <c r="C411" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A412" s="1" t="s">
         <v>211</v>
       </c>
@@ -5463,10 +5484,10 @@
         <v>26</v>
       </c>
       <c r="C412" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="413">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A413" s="1" t="s">
         <v>211</v>
       </c>
@@ -5474,10 +5495,10 @@
         <v>27</v>
       </c>
       <c r="C413" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="414">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A414" s="1" t="s">
         <v>211</v>
       </c>
@@ -5485,10 +5506,10 @@
         <v>177</v>
       </c>
       <c r="C414" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="415">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A415" s="1" t="s">
         <v>211</v>
       </c>
@@ -5496,10 +5517,10 @@
         <v>214</v>
       </c>
       <c r="C415" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="416">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A416" s="1" t="s">
         <v>211</v>
       </c>
@@ -5507,10 +5528,10 @@
         <v>28</v>
       </c>
       <c r="C416" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="417">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A417" s="1" t="s">
         <v>211</v>
       </c>
@@ -5518,10 +5539,10 @@
         <v>178</v>
       </c>
       <c r="C417" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="418">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A418" s="1" t="s">
         <v>211</v>
       </c>
@@ -5529,10 +5550,10 @@
         <v>30</v>
       </c>
       <c r="C418" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="419">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A419" s="1" t="s">
         <v>211</v>
       </c>
@@ -5540,10 +5561,10 @@
         <v>31</v>
       </c>
       <c r="C419" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="420">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A420" s="1" t="s">
         <v>211</v>
       </c>
@@ -5551,10 +5572,10 @@
         <v>179</v>
       </c>
       <c r="C420" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="421">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A421" s="1" t="s">
         <v>211</v>
       </c>
@@ -5562,10 +5583,10 @@
         <v>119</v>
       </c>
       <c r="C421" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="422">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A422" s="1" t="s">
         <v>211</v>
       </c>
@@ -5573,10 +5594,10 @@
         <v>32</v>
       </c>
       <c r="C422" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="423">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A423" s="1" t="s">
         <v>211</v>
       </c>
@@ -5584,10 +5605,10 @@
         <v>180</v>
       </c>
       <c r="C423" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="424">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A424" s="1" t="s">
         <v>211</v>
       </c>
@@ -5595,10 +5616,10 @@
         <v>121</v>
       </c>
       <c r="C424" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="425">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A425" s="1" t="s">
         <v>211</v>
       </c>
@@ -5606,10 +5627,10 @@
         <v>122</v>
       </c>
       <c r="C425" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="426">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A426" s="1" t="s">
         <v>211</v>
       </c>
@@ -5617,10 +5638,10 @@
         <v>36</v>
       </c>
       <c r="C426" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="427">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A427" s="1" t="s">
         <v>211</v>
       </c>
@@ -5628,10 +5649,10 @@
         <v>37</v>
       </c>
       <c r="C427" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="428">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A428" s="1" t="s">
         <v>211</v>
       </c>
@@ -5639,10 +5660,10 @@
         <v>38</v>
       </c>
       <c r="C428" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="429">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A429" s="1" t="s">
         <v>211</v>
       </c>
@@ -5650,10 +5671,10 @@
         <v>148</v>
       </c>
       <c r="C429" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="430">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A430" s="1" t="s">
         <v>211</v>
       </c>
@@ -5661,10 +5682,10 @@
         <v>215</v>
       </c>
       <c r="C430" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="431">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A431" s="1" t="s">
         <v>211</v>
       </c>
@@ -5672,10 +5693,10 @@
         <v>181</v>
       </c>
       <c r="C431" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="432">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A432" s="1" t="s">
         <v>211</v>
       </c>
@@ -5683,10 +5704,10 @@
         <v>182</v>
       </c>
       <c r="C432" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="433">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A433" s="1" t="s">
         <v>211</v>
       </c>
@@ -5694,10 +5715,10 @@
         <v>40</v>
       </c>
       <c r="C433" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="434">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A434" s="1" t="s">
         <v>211</v>
       </c>
@@ -5705,10 +5726,10 @@
         <v>207</v>
       </c>
       <c r="C434" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="435">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A435" s="1" t="s">
         <v>211</v>
       </c>
@@ -5716,10 +5737,10 @@
         <v>183</v>
       </c>
       <c r="C435" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="436">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A436" s="1" t="s">
         <v>211</v>
       </c>
@@ -5727,10 +5748,10 @@
         <v>41</v>
       </c>
       <c r="C436" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="437">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A437" s="1" t="s">
         <v>211</v>
       </c>
@@ -5738,10 +5759,10 @@
         <v>184</v>
       </c>
       <c r="C437" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="438">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A438" s="1" t="s">
         <v>211</v>
       </c>
@@ -5749,10 +5770,10 @@
         <v>42</v>
       </c>
       <c r="C438" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="439">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A439" s="1" t="s">
         <v>211</v>
       </c>
@@ -5760,10 +5781,10 @@
         <v>185</v>
       </c>
       <c r="C439" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="440">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A440" s="1" t="s">
         <v>211</v>
       </c>
@@ -5771,10 +5792,10 @@
         <v>86</v>
       </c>
       <c r="C440" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="441">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A441" s="1" t="s">
         <v>211</v>
       </c>
@@ -5782,10 +5803,10 @@
         <v>44</v>
       </c>
       <c r="C441" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="442">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A442" s="1" t="s">
         <v>211</v>
       </c>
@@ -5793,10 +5814,10 @@
         <v>186</v>
       </c>
       <c r="C442" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="443">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A443" s="1" t="s">
         <v>211</v>
       </c>
@@ -5804,10 +5825,10 @@
         <v>187</v>
       </c>
       <c r="C443" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="444">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A444" s="1" t="s">
         <v>211</v>
       </c>
@@ -5815,10 +5836,10 @@
         <v>45</v>
       </c>
       <c r="C444" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="445">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A445" s="1" t="s">
         <v>211</v>
       </c>
@@ -5826,10 +5847,10 @@
         <v>46</v>
       </c>
       <c r="C445" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="446">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A446" s="1" t="s">
         <v>211</v>
       </c>
@@ -5837,10 +5858,10 @@
         <v>188</v>
       </c>
       <c r="C446" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="447">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A447" s="1" t="s">
         <v>211</v>
       </c>
@@ -5848,10 +5869,10 @@
         <v>189</v>
       </c>
       <c r="C447" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="448">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A448" s="1" t="s">
         <v>211</v>
       </c>
@@ -5859,10 +5880,10 @@
         <v>47</v>
       </c>
       <c r="C448" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="449">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A449" s="1" t="s">
         <v>211</v>
       </c>
@@ -5870,10 +5891,10 @@
         <v>190</v>
       </c>
       <c r="C449" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="450">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A450" s="1" t="s">
         <v>211</v>
       </c>
@@ -5881,10 +5902,10 @@
         <v>191</v>
       </c>
       <c r="C450" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="451">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A451" s="1" t="s">
         <v>211</v>
       </c>
@@ -5892,10 +5913,10 @@
         <v>48</v>
       </c>
       <c r="C451" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="452">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A452" s="1" t="s">
         <v>211</v>
       </c>
@@ -5903,10 +5924,10 @@
         <v>192</v>
       </c>
       <c r="C452" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="453">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A453" s="1" t="s">
         <v>211</v>
       </c>
@@ -5914,10 +5935,10 @@
         <v>90</v>
       </c>
       <c r="C453" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="454">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A454" s="1" t="s">
         <v>211</v>
       </c>
@@ -5925,10 +5946,10 @@
         <v>91</v>
       </c>
       <c r="C454" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="455">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A455" s="1" t="s">
         <v>211</v>
       </c>
@@ -5936,10 +5957,10 @@
         <v>127</v>
       </c>
       <c r="C455" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="456">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A456" s="1" t="s">
         <v>211</v>
       </c>
@@ -5947,10 +5968,10 @@
         <v>193</v>
       </c>
       <c r="C456" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="457">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A457" s="1" t="s">
         <v>211</v>
       </c>
@@ -5958,10 +5979,10 @@
         <v>51</v>
       </c>
       <c r="C457" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="458">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A458" s="1" t="s">
         <v>211</v>
       </c>
@@ -5969,10 +5990,10 @@
         <v>209</v>
       </c>
       <c r="C458" s="1">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="459">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A459" s="1" t="s">
         <v>211</v>
       </c>
@@ -5980,10 +6001,10 @@
         <v>94</v>
       </c>
       <c r="C459" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="460">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A460" s="1" t="s">
         <v>211</v>
       </c>
@@ -5991,10 +6012,10 @@
         <v>128</v>
       </c>
       <c r="C460" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="461">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A461" s="1" t="s">
         <v>211</v>
       </c>
@@ -6002,10 +6023,10 @@
         <v>52</v>
       </c>
       <c r="C461" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="462">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A462" s="1" t="s">
         <v>211</v>
       </c>
@@ -6013,10 +6034,10 @@
         <v>129</v>
       </c>
       <c r="C462" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="463">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A463" s="1" t="s">
         <v>211</v>
       </c>
@@ -6024,10 +6045,10 @@
         <v>53</v>
       </c>
       <c r="C463" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="464">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A464" s="1" t="s">
         <v>211</v>
       </c>
@@ -6035,10 +6056,10 @@
         <v>216</v>
       </c>
       <c r="C464" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="465">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A465" s="1" t="s">
         <v>211</v>
       </c>
@@ -6046,10 +6067,10 @@
         <v>217</v>
       </c>
       <c r="C465" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="466">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A466" s="1" t="s">
         <v>211</v>
       </c>
@@ -6057,10 +6078,10 @@
         <v>55</v>
       </c>
       <c r="C466" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="467">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A467" s="1" t="s">
         <v>211</v>
       </c>
@@ -6068,10 +6089,10 @@
         <v>133</v>
       </c>
       <c r="C467" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="468">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A468" s="1" t="s">
         <v>211</v>
       </c>
@@ -6079,10 +6100,10 @@
         <v>218</v>
       </c>
       <c r="C468" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="469">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A469" s="1" t="s">
         <v>211</v>
       </c>
@@ -6090,10 +6111,10 @@
         <v>219</v>
       </c>
       <c r="C469" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="470">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A470" s="1" t="s">
         <v>211</v>
       </c>
@@ -6101,10 +6122,10 @@
         <v>56</v>
       </c>
       <c r="C470" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="471">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A471" s="1" t="s">
         <v>211</v>
       </c>
@@ -6112,10 +6133,10 @@
         <v>134</v>
       </c>
       <c r="C471" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="472">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A472" s="1" t="s">
         <v>211</v>
       </c>
@@ -6123,10 +6144,10 @@
         <v>135</v>
       </c>
       <c r="C472" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="473">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A473" s="1" t="s">
         <v>211</v>
       </c>
@@ -6134,10 +6155,10 @@
         <v>194</v>
       </c>
       <c r="C473" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="474">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A474" s="1" t="s">
         <v>211</v>
       </c>
@@ -6145,10 +6166,10 @@
         <v>195</v>
       </c>
       <c r="C474" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="475">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A475" s="1" t="s">
         <v>211</v>
       </c>
@@ -6156,10 +6177,10 @@
         <v>136</v>
       </c>
       <c r="C475" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="476">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A476" s="1" t="s">
         <v>211</v>
       </c>
@@ -6167,10 +6188,10 @@
         <v>57</v>
       </c>
       <c r="C476" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="477">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A477" s="1" t="s">
         <v>211</v>
       </c>
@@ -6178,10 +6199,10 @@
         <v>59</v>
       </c>
       <c r="C477" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="478">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A478" s="1" t="s">
         <v>211</v>
       </c>
@@ -6189,10 +6210,10 @@
         <v>61</v>
       </c>
       <c r="C478" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="479">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A479" s="1" t="s">
         <v>211</v>
       </c>
@@ -6200,10 +6221,10 @@
         <v>62</v>
       </c>
       <c r="C479" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="480">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A480" s="1" t="s">
         <v>211</v>
       </c>
@@ -6211,10 +6232,10 @@
         <v>102</v>
       </c>
       <c r="C480" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="481">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A481" s="1" t="s">
         <v>211</v>
       </c>
@@ -6222,10 +6243,10 @@
         <v>137</v>
       </c>
       <c r="C481" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="482">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A482" s="1" t="s">
         <v>211</v>
       </c>
@@ -6233,10 +6254,10 @@
         <v>196</v>
       </c>
       <c r="C482" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="483">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A483" s="1" t="s">
         <v>211</v>
       </c>
@@ -6244,10 +6265,10 @@
         <v>197</v>
       </c>
       <c r="C483" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="484">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A484" s="1" t="s">
         <v>211</v>
       </c>
@@ -6255,10 +6276,10 @@
         <v>198</v>
       </c>
       <c r="C484" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="485">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A485" s="1" t="s">
         <v>211</v>
       </c>
@@ -6266,10 +6287,10 @@
         <v>104</v>
       </c>
       <c r="C485" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="486">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A486" s="1" t="s">
         <v>211</v>
       </c>
@@ -6277,10 +6298,10 @@
         <v>199</v>
       </c>
       <c r="C486" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="487">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A487" s="1" t="s">
         <v>211</v>
       </c>
@@ -6288,10 +6309,10 @@
         <v>63</v>
       </c>
       <c r="C487" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="488">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A488" s="1" t="s">
         <v>211</v>
       </c>
@@ -6299,10 +6320,10 @@
         <v>210</v>
       </c>
       <c r="C488" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="489">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A489" s="1" t="s">
         <v>211</v>
       </c>
@@ -6310,10 +6331,10 @@
         <v>200</v>
       </c>
       <c r="C489" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="490">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A490" s="1" t="s">
         <v>211</v>
       </c>
@@ -6321,10 +6342,10 @@
         <v>220</v>
       </c>
       <c r="C490" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="491">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A491" s="1" t="s">
         <v>211</v>
       </c>
@@ -6332,10 +6353,10 @@
         <v>64</v>
       </c>
       <c r="C491" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="492">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A492" s="1" t="s">
         <v>211</v>
       </c>
@@ -6343,10 +6364,10 @@
         <v>138</v>
       </c>
       <c r="C492" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="493">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A493" s="1" t="s">
         <v>211</v>
       </c>
@@ -6354,10 +6375,10 @@
         <v>221</v>
       </c>
       <c r="C493" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="494">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A494" s="1" t="s">
         <v>222</v>
       </c>
@@ -6368,7 +6389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="495">
+    <row r="495" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A495" s="1" t="s">
         <v>222</v>
       </c>
@@ -6379,7 +6400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="496">
+    <row r="496" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A496" s="1" t="s">
         <v>222</v>
       </c>
@@ -6390,7 +6411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="497">
+    <row r="497" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A497" s="1" t="s">
         <v>222</v>
       </c>
@@ -6401,7 +6422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="498">
+    <row r="498" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A498" s="1" t="s">
         <v>222</v>
       </c>
@@ -6412,7 +6433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="499">
+    <row r="499" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A499" s="1" t="s">
         <v>222</v>
       </c>
@@ -6423,7 +6444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="500">
+    <row r="500" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A500" s="1" t="s">
         <v>222</v>
       </c>
@@ -6434,7 +6455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="501">
+    <row r="501" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A501" s="1" t="s">
         <v>222</v>
       </c>
@@ -6445,7 +6466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="502">
+    <row r="502" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A502" s="1" t="s">
         <v>222</v>
       </c>
@@ -6456,546 +6477,535 @@
         <v>5</v>
       </c>
     </row>
-    <row r="503">
+    <row r="503" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A503" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C503" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="504">
+    <row r="504" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A504" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C504" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="505">
+    <row r="505" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A505" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="C505" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="506">
+    <row r="506" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A506" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C506" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="507">
+    <row r="507" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A507" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="C507" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="508">
+    <row r="508" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A508" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="C508" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="509">
+    <row r="509" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A509" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C509" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="510">
+        <v>15</v>
+      </c>
+      <c r="C509" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A510" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="C510" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="511">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A511" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="C511" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A512" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C512" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="513">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A513" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C513" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="514">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A514" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>26</v>
+        <v>178</v>
       </c>
       <c r="C514" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="515">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A515" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>178</v>
+        <v>31</v>
       </c>
       <c r="C515" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="516">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A516" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C516" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="517">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A517" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C517" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="518">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A518" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="C518" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="519">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A519" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="C519" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="520">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A520" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="C520" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="521">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A521" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C521" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="522">
+        <v>162</v>
+      </c>
+      <c r="C521" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A522" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>162</v>
+        <v>4</v>
       </c>
       <c r="C522" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="523">
+    <row r="523" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A523" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>4</v>
+        <v>163</v>
       </c>
       <c r="C523" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="524">
+    <row r="524" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A524" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C524" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="525">
+    <row r="525" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A525" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>164</v>
+        <v>66</v>
       </c>
       <c r="C525" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="526">
+    <row r="526" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A526" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="C526" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="527">
+    <row r="527" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A527" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>6</v>
+        <v>165</v>
       </c>
       <c r="C527" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="528">
+    <row r="528" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A528" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="C528" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="529">
+    <row r="529" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A529" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C529" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="530">
+    <row r="530" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A530" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C530" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="531">
+    <row r="531" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A531" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C531" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="532">
+    <row r="532" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A532" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="C532" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="533">
+    <row r="533" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A533" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="C533" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="534">
+    <row r="534" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A534" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C534" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="535">
+    <row r="535" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A535" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>167</v>
+        <v>72</v>
       </c>
       <c r="C535" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="536">
+    <row r="536" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A536" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="C536" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="537">
+    <row r="537" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A537" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C537" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="538">
+        <v>168</v>
+      </c>
+      <c r="C537" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A538" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C538" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="539">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A539" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C539" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="540">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A540" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C540" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A541" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>174</v>
+        <v>78</v>
       </c>
       <c r="C541" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="542">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A542" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="C542" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="543">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A543" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>176</v>
+        <v>27</v>
       </c>
       <c r="C543" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="544">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A544" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>27</v>
+        <v>177</v>
       </c>
       <c r="C544" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="545">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A545" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="C545" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="546">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A546" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="C546" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="547">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A547" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B547" s="1" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="C547" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="548">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A548" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B548" s="1" t="s">
-        <v>122</v>
+        <v>215</v>
       </c>
       <c r="C548" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="549">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A549" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B549" s="1" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="C549" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="550">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A550" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B550" s="1" t="s">
-        <v>183</v>
+        <v>42</v>
       </c>
       <c r="C550" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B551" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C551" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>